--- a/TopMovies.xlsx
+++ b/TopMovies.xlsx
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Babam ve Oglum</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Babam ve Oglum</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
